--- a/design/excel/player_config.xlsx
+++ b/design/excel/player_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="14720" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -24,6 +24,9 @@
     <t>人物模型</t>
   </si>
   <si>
+    <t>皮肤挂点</t>
+  </si>
+  <si>
     <t>帧动画配置</t>
   </si>
   <si>
@@ -39,10 +42,16 @@
     <t>model_path</t>
   </si>
   <si>
+    <t>skin_path</t>
+  </si>
+  <si>
     <t>anim_id</t>
   </si>
   <si>
     <t>player_01</t>
+  </si>
+  <si>
+    <t>player_01/jiaose_01/Quad</t>
   </si>
   <si>
     <t>player_02</t>
@@ -80,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -543,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,10 +561,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,7 +573,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,18 +1049,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G13" sqref="C25 G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,147 +1070,189 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
@@ -1221,7 +1272,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1238,7 +1289,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/excel/player_config.xlsx
+++ b/design/excel/player_config.xlsx
@@ -51,7 +51,7 @@
     <t>player_01</t>
   </si>
   <si>
-    <t>player_01/jiaose_01/Quad</t>
+    <t>jiaose_01/Quad</t>
   </si>
   <si>
     <t>player_02</t>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,28 +552,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,12 +1052,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="C25 G13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/design/excel/player_config.xlsx
+++ b/design/excel/player_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14720" windowHeight="17180"/>
+    <workbookView windowWidth="19455" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -30,12 +30,18 @@
     <t>帧动画配置</t>
   </si>
   <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>anim_id</t>
   </si>
   <si>
+    <t>move_speed</t>
+  </si>
+  <si>
     <t>player_01</t>
   </si>
   <si>
@@ -55,33 +64,6 @@
   </si>
   <si>
     <t>player_02</t>
-  </si>
-  <si>
-    <t>player_03</t>
-  </si>
-  <si>
-    <t>player_04</t>
-  </si>
-  <si>
-    <t>player_05</t>
-  </si>
-  <si>
-    <t>player_06</t>
-  </si>
-  <si>
-    <t>player_07</t>
-  </si>
-  <si>
-    <t>player_08</t>
-  </si>
-  <si>
-    <t>player_09</t>
-  </si>
-  <si>
-    <t>player_10</t>
-  </si>
-  <si>
-    <t>player_11</t>
   </si>
 </sst>
 </file>
@@ -89,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +85,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,21 +124,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,16 +169,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -170,6 +199,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -178,70 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,43 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,139 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,16 +433,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +491,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,148 +534,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,19 +1031,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,187 +1058,76 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E5">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1146,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1290,7 +1163,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/excel/player_config.xlsx
+++ b/design/excel/player_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>player_02</t>
+  </si>
+  <si>
+    <t>guaiwu_01/Quad</t>
   </si>
 </sst>
 </file>
@@ -71,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -85,6 +88,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -93,16 +132,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,66 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -185,20 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -206,16 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +220,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +241,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,19 +301,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,43 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,19 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,73 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,15 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,6 +491,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1037,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1121,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>

--- a/design/excel/player_config.xlsx
+++ b/design/excel/player_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="11025"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -88,6 +88,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -95,61 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,17 +134,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +186,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -195,31 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,43 +241,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +325,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,103 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +450,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -460,6 +469,41 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -480,30 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -512,26 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1110,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1127,10 +1127,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
